--- a/raw/isotopes/irms_master.xlsx
+++ b/raw/isotopes/irms_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sawyer/Documents/GitHub/wickford_cores/raw/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92BEB81-0606-824C-A308-D2DC2579A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6995B-8FBB-A24A-9E94-785FA4C88F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="870" xr2:uid="{B704D4C7-4AFA-47B3-92E9-05BC1A1B8F16}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="870" activeTab="2" xr2:uid="{B704D4C7-4AFA-47B3-92E9-05BC1A1B8F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled" sheetId="12" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -766,6 +766,15 @@
   <si>
     <t>sample.type</t>
   </si>
+  <si>
+    <t>pooled sd</t>
+  </si>
+  <si>
+    <t>d15n</t>
+  </si>
+  <si>
+    <t>d13c</t>
+  </si>
 </sst>
 </file>
 
@@ -1349,6 +1358,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,8 +1378,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2581,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5DB554-EE29-47BE-B6F3-A0911FF15A20}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
@@ -2606,7 +2615,7 @@
     <col min="17" max="17" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
         <v>174</v>
       </c>
@@ -8656,7 +8665,7 @@
       <c r="G123" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H123" s="77">
+      <c r="H123" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I123,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I123,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>19.495999999999999</v>
       </c>
@@ -8804,7 +8813,7 @@
       <c r="G126" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H126" s="77">
+      <c r="H126" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I126,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I126,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.186</v>
       </c>
@@ -8854,7 +8863,7 @@
       <c r="G127" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H127" s="77">
+      <c r="H127" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I127,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I127,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.027000000000001</v>
       </c>
@@ -9002,7 +9011,7 @@
       <c r="G130" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H130" s="77">
+      <c r="H130" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I130,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I130,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>19.768000000000001</v>
       </c>
@@ -9248,7 +9257,7 @@
       <c r="G135" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H135" s="77">
+      <c r="H135" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I135,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I135,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.431999999999999</v>
       </c>
@@ -9396,7 +9405,7 @@
       <c r="G138" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H138" s="77">
+      <c r="H138" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I138,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I138,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>20.666</v>
       </c>
@@ -9544,7 +9553,7 @@
       <c r="G141" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H141" s="77">
+      <c r="H141" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I141,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I141,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>19.14</v>
       </c>
@@ -9692,7 +9701,7 @@
       <c r="G144" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H144" s="77">
+      <c r="H144" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I144,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I144,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>20.331</v>
       </c>
@@ -9742,7 +9751,7 @@
       <c r="G145" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H145" s="77">
+      <c r="H145" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I145,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I145,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.234999999999999</v>
       </c>
@@ -9890,7 +9899,7 @@
       <c r="G148" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H148" s="77">
+      <c r="H148" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I148,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I148,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.172999999999998</v>
       </c>
@@ -10136,7 +10145,7 @@
       <c r="G153" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H153" s="77">
+      <c r="H153" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I153,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I153,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.387</v>
       </c>
@@ -10284,7 +10293,7 @@
       <c r="G156" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H156" s="77">
+      <c r="H156" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I156,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I156,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>20.774999999999999</v>
       </c>
@@ -10432,7 +10441,7 @@
       <c r="G159" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H159" s="77">
+      <c r="H159" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I159,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I159,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>20.448</v>
       </c>
@@ -10580,7 +10589,7 @@
       <c r="G162" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H162" s="77">
+      <c r="H162" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I162,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I162,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.074000000000002</v>
       </c>
@@ -10630,7 +10639,7 @@
       <c r="G163" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H163" s="77">
+      <c r="H163" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I163,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I163,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>20.832000000000001</v>
       </c>
@@ -10778,7 +10787,7 @@
       <c r="G166" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H166" s="77">
+      <c r="H166" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I166,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I166,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>23.696999999999999</v>
       </c>
@@ -10828,7 +10837,7 @@
       <c r="G167" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H167" s="77">
+      <c r="H167" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I167,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I167,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>17.91</v>
       </c>
@@ -10878,7 +10887,7 @@
       <c r="G168" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H168" s="77">
+      <c r="H168" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I168,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I168,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.763999999999999</v>
       </c>
@@ -11026,7 +11035,7 @@
       <c r="G171" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H171" s="77">
+      <c r="H171" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I171,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I171,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>19.501000000000001</v>
       </c>
@@ -11125,7 +11134,7 @@
       <c r="G173" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H173" s="78">
+      <c r="H173" s="72">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I173,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I173,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>22.442</v>
       </c>
@@ -11224,7 +11233,7 @@
       <c r="G175" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H175" s="77">
+      <c r="H175" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I175,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I175,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.907</v>
       </c>
@@ -11274,7 +11283,7 @@
       <c r="G176" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H176" s="77">
+      <c r="H176" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I176,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I176,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.923999999999999</v>
       </c>
@@ -11373,7 +11382,7 @@
       <c r="G178" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H178" s="77">
+      <c r="H178" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I178,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I178,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.471</v>
       </c>
@@ -11472,7 +11481,7 @@
       <c r="G180" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H180" s="77">
+      <c r="H180" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I180,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I180,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>22.276</v>
       </c>
@@ -11571,7 +11580,7 @@
       <c r="G182" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H182" s="77">
+      <c r="H182" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I182,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I182,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.529</v>
       </c>
@@ -11670,7 +11679,7 @@
       <c r="G184" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H184" s="77">
+      <c r="H184" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I184,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I184,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>22.405000000000001</v>
       </c>
@@ -11769,7 +11778,7 @@
       <c r="G186" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H186" s="77">
+      <c r="H186" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I186,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I186,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>19.21</v>
       </c>
@@ -11819,7 +11828,7 @@
       <c r="G187" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H187" s="77">
+      <c r="H187" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I187,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I187,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>19.588000000000001</v>
       </c>
@@ -11918,7 +11927,7 @@
       <c r="G189" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H189" s="77">
+      <c r="H189" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I189,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I189,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.254000000000001</v>
       </c>
@@ -12017,7 +12026,7 @@
       <c r="G191" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H191" s="77">
+      <c r="H191" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I191,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I191,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>20.067</v>
       </c>
@@ -12116,7 +12125,7 @@
       <c r="G193" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H193" s="77">
+      <c r="H193" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I193,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I193,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.7</v>
       </c>
@@ -12166,7 +12175,7 @@
       <c r="G194" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H194" s="77">
+      <c r="H194" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I194,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I194,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>18.643000000000001</v>
       </c>
@@ -12216,7 +12225,7 @@
       <c r="G195" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H195" s="77">
+      <c r="H195" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I195,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I195,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>16.923999999999999</v>
       </c>
@@ -12266,7 +12275,7 @@
       <c r="G196" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H196" s="77">
+      <c r="H196" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I196,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I196,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>20.434000000000001</v>
       </c>
@@ -12365,7 +12374,7 @@
       <c r="G198" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H198" s="77">
+      <c r="H198" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I198,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I198,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>19.370999999999999</v>
       </c>
@@ -12856,7 +12865,7 @@
       <c r="G208" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H208" s="77">
+      <c r="H208" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I208,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I208,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.745000000000001</v>
       </c>
@@ -12906,7 +12915,7 @@
       <c r="G209" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H209" s="78">
+      <c r="H209" s="72">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I209,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I209,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>19.271999999999998</v>
       </c>
@@ -13152,7 +13161,7 @@
       <c r="G214" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H214" s="77">
+      <c r="H214" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I214,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I214,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.443999999999999</v>
       </c>
@@ -13398,7 +13407,7 @@
       <c r="G219" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H219" s="77">
+      <c r="H219" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I219,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I219,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>21.957000000000001</v>
       </c>
@@ -13644,7 +13653,7 @@
       <c r="G224" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H224" s="77">
+      <c r="H224" s="71">
         <f>IF(ISNUMBER(_xlfn.XLOOKUP($I224,IRMS[ID],IRMS[Mass (mg)],,0)),_xlfn.XLOOKUP($I224,IRMS[ID],IRMS[Mass (mg)],,0),NA())</f>
         <v>20.719000000000001</v>
       </c>
@@ -15754,8 +15763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2FA7EC-5DA3-4B60-80B0-CCD57A902552}">
   <dimension ref="A1:J606"/>
   <sheetViews>
-    <sheetView topLeftCell="A579" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33922,10 +33931,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C2C52D-85E2-48E6-AF5B-FC3C961D304B}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33939,14 +33948,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -34072,8 +34081,8 @@
         <v>-2.4417157207292206E-2</v>
       </c>
       <c r="C7" s="36" cm="1">
-        <f t="array" ref="C7">STDEV(IF(IRMS[Name]=$A7,IRMS[δ¹⁵NAir (‰)]))</f>
-        <v>0.35152091265284346</v>
+        <f t="array" ref="C7">STDEV(IF(IRMS[Name]=$A7,IRMS[%N]))</f>
+        <v>9.5719571784117899E-2</v>
       </c>
       <c r="D7" s="40">
         <f>AVERAGEIFS(IRMS[%C],IRMS[Name],$A7,IRMS[%C],"&lt;&gt;#N/A")-29.99</f>
@@ -34092,14 +34101,14 @@
       <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
@@ -34189,6 +34198,27 @@
       <c r="F13" s="19" cm="1">
         <f t="array" ref="F13">COUNT(IF(IRMS[Name]=$A13,IRMS[δ¹⁵NAir (‰)],NA()))</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <f>((C3*F3)+(C4*F4)+(C5*F5))/SUM(F3:F5)</f>
+        <v>0.53366130974045101</v>
+      </c>
+      <c r="C16" s="1">
+        <f>((E3*F3)+(E4*F4)+(E5*F5))/SUM(F3:F5)</f>
+        <v>0.6413370990589673</v>
       </c>
     </row>
   </sheetData>
